--- a/REVER_DailyTracker_20200922.xlsx
+++ b/REVER_DailyTracker_20200922.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98C448-BA43-404F-84EE-338B46203B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7098B8-F6D1-4E16-9825-6B009140AADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve"> QMVAR - Daily_repairsetSetNP  in progress.             Hayaai app screen designed                           </t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B and B2C</t>
+  </si>
+  <si>
+    <t>Few corrections in B2B APP and flow on Pick Delivery change for B2C reviewing</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +296,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1208,7 +1226,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="30" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
@@ -1224,7 +1242,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1237,11 +1255,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
@@ -1250,51 +1272,83 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" s="4" customFormat="1">
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="2:4" s="4" customFormat="1">
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="2:4" s="4" customFormat="1">
+      <c r="D19" s="29"/>
+    </row>
+    <row r="22" spans="2:4">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:4">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:4">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:4">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:4">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
@@ -1310,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
